--- a/Help.xlsx
+++ b/Help.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\SPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\Example6-SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DA6FCA-82AB-4D12-84DA-991BC971D87F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D89E3CA-C871-4503-8857-EA157403B974}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1" xr2:uid="{5740D95F-80E7-44B0-87D4-0F55F160A994}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="36">
   <si>
     <t>ShapeDrawable h1 = new ShapeDrawable(new RectShape());</t>
   </si>
@@ -4591,8 +4591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67521B4C-68BA-41C2-9283-87872E9FDD36}">
   <dimension ref="B2:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6608,8 +6608,9 @@
       <c r="M51" t="s">
         <v>8</v>
       </c>
-      <c r="N51" t="s">
-        <v>15</v>
+      <c r="N51" t="str">
+        <f t="shared" ref="N51:N62" si="10">C51&amp;D51&amp;E51&amp;F51&amp;G51&amp;H51&amp;I51&amp;J51&amp;K51&amp;L51&amp;M51</f>
+        <v>h1.setBounds(0,0,2600,5);</v>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.25">
@@ -6646,8 +6647,9 @@
       <c r="M52" t="s">
         <v>8</v>
       </c>
-      <c r="N52" t="s">
-        <v>16</v>
+      <c r="N52" t="str">
+        <f t="shared" si="10"/>
+        <v>h2.setBounds(1950,500,2600,505);</v>
       </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.25">
@@ -6684,8 +6686,9 @@
       <c r="M53" t="s">
         <v>8</v>
       </c>
-      <c r="N53" t="s">
-        <v>17</v>
+      <c r="N53" t="str">
+        <f t="shared" si="10"/>
+        <v>h3.setBounds(1830,1230,2170,1235);</v>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.25">
@@ -6722,8 +6725,9 @@
       <c r="M54" t="s">
         <v>8</v>
       </c>
-      <c r="N54" t="s">
-        <v>18</v>
+      <c r="N54" t="str">
+        <f t="shared" si="10"/>
+        <v>h4.setBounds(1600,920,1830,925);</v>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.25">
@@ -6760,8 +6764,9 @@
       <c r="M55" t="s">
         <v>8</v>
       </c>
-      <c r="N55" t="s">
-        <v>19</v>
+      <c r="N55" t="str">
+        <f t="shared" si="10"/>
+        <v>h5.setBounds(1260,920,1600,925);</v>
       </c>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.25">
@@ -6798,8 +6803,9 @@
       <c r="M56" t="s">
         <v>8</v>
       </c>
-      <c r="N56" t="s">
-        <v>20</v>
+      <c r="N56" t="str">
+        <f t="shared" si="10"/>
+        <v>h6.setBounds(920,920,1260,925);</v>
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.25">
@@ -6836,8 +6842,9 @@
       <c r="M57" t="s">
         <v>8</v>
       </c>
-      <c r="N57" t="s">
-        <v>21</v>
+      <c r="N57" t="str">
+        <f t="shared" si="10"/>
+        <v>h7.setBounds(0,920,920,925);</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.25">
@@ -6874,8 +6881,9 @@
       <c r="M58" t="s">
         <v>8</v>
       </c>
-      <c r="N58" t="s">
-        <v>22</v>
+      <c r="N58" t="str">
+        <f t="shared" si="10"/>
+        <v>h8.setBounds(0,1440,2600,1445);</v>
       </c>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.25">
@@ -6912,8 +6920,9 @@
       <c r="M59" t="s">
         <v>8</v>
       </c>
-      <c r="N59" t="s">
-        <v>23</v>
+      <c r="N59" t="str">
+        <f t="shared" si="10"/>
+        <v>h9.setBounds(180,690,440,695);</v>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.25">
@@ -6951,8 +6960,9 @@
       <c r="M60" t="s">
         <v>8</v>
       </c>
-      <c r="N60" t="s">
-        <v>24</v>
+      <c r="N60" t="str">
+        <f t="shared" si="10"/>
+        <v>h10.setBounds(440,690,800,695);</v>
       </c>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.25">
@@ -6989,8 +6999,9 @@
       <c r="M61" t="s">
         <v>8</v>
       </c>
-      <c r="N61" t="s">
-        <v>25</v>
+      <c r="N61" t="str">
+        <f t="shared" si="10"/>
+        <v>h11.setBounds(1010,690,1240,695);</v>
       </c>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.25">
@@ -7027,8 +7038,9 @@
       <c r="M62" t="s">
         <v>8</v>
       </c>
-      <c r="N62" t="s">
-        <v>35</v>
+      <c r="N62" t="str">
+        <f t="shared" si="10"/>
+        <v>h12.setBounds(1240,690,1820,695);</v>
       </c>
     </row>
     <row r="66" spans="3:22" x14ac:dyDescent="0.25">
@@ -7065,8 +7077,9 @@
       <c r="M66" t="s">
         <v>8</v>
       </c>
-      <c r="N66" t="s">
-        <v>29</v>
+      <c r="N66" t="str">
+        <f t="shared" ref="N66:N71" si="11">C66&amp;D66&amp;E66&amp;F66&amp;G66&amp;H66&amp;I66&amp;J66&amp;K66&amp;L66&amp;M66</f>
+        <v>h16.setBounds(1380,130,1820,135);</v>
       </c>
     </row>
     <row r="67" spans="3:22" x14ac:dyDescent="0.25">
@@ -7104,8 +7117,9 @@
       <c r="M67" t="s">
         <v>8</v>
       </c>
-      <c r="N67" t="s">
-        <v>30</v>
+      <c r="N67" t="str">
+        <f t="shared" si="11"/>
+        <v>h17.setBounds(580,270,800,275);</v>
       </c>
     </row>
     <row r="68" spans="3:22" x14ac:dyDescent="0.25">
@@ -7142,8 +7156,9 @@
       <c r="M68" t="s">
         <v>8</v>
       </c>
-      <c r="N68" t="s">
-        <v>31</v>
+      <c r="N68" t="str">
+        <f t="shared" si="11"/>
+        <v>h18.setBounds(1010,270,1240,275);</v>
       </c>
     </row>
     <row r="69" spans="3:22" x14ac:dyDescent="0.25">
@@ -7180,8 +7195,9 @@
       <c r="M69" t="s">
         <v>8</v>
       </c>
-      <c r="N69" t="s">
-        <v>32</v>
+      <c r="N69" t="str">
+        <f t="shared" si="11"/>
+        <v>h19.setBounds(1240,270,1380,275);</v>
       </c>
     </row>
     <row r="70" spans="3:22" x14ac:dyDescent="0.25">
@@ -7218,8 +7234,9 @@
       <c r="M70" t="s">
         <v>8</v>
       </c>
-      <c r="N70" t="s">
-        <v>33</v>
+      <c r="N70" t="str">
+        <f t="shared" si="11"/>
+        <v>h20.setBounds(440,320,580,325);</v>
       </c>
     </row>
     <row r="71" spans="3:22" x14ac:dyDescent="0.25">
@@ -7256,8 +7273,9 @@
       <c r="M71" t="s">
         <v>8</v>
       </c>
-      <c r="N71" t="s">
-        <v>34</v>
+      <c r="N71" t="str">
+        <f t="shared" si="11"/>
+        <v>h21.setBounds(560,520,180,525);</v>
       </c>
     </row>
     <row r="74" spans="3:22" x14ac:dyDescent="0.25">
@@ -7310,7 +7328,7 @@
         <v>8</v>
       </c>
       <c r="N75" s="2" t="str">
-        <f t="shared" ref="N75:N95" si="10">C75&amp;D75&amp;E75&amp;F75&amp;G75&amp;H75&amp;I75&amp;J75&amp;K75&amp;L75&amp;M75</f>
+        <f t="shared" ref="N75:N95" si="12">C75&amp;D75&amp;E75&amp;F75&amp;G75&amp;H75&amp;I75&amp;J75&amp;K75&amp;L75&amp;M75</f>
         <v>v1.setBounds(0,0,5,1440);</v>
       </c>
       <c r="R75" t="s">
@@ -7366,7 +7384,7 @@
         <v>8</v>
       </c>
       <c r="N76" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v2.setBounds(2600,0,2605,1440);</v>
       </c>
       <c r="R76" t="s">
@@ -7383,7 +7401,7 @@
         <v>8</v>
       </c>
       <c r="V76" t="str">
-        <f t="shared" ref="V76:V95" si="11">R76&amp;S76&amp;T76&amp;U76</f>
+        <f t="shared" ref="V76:V95" si="13">R76&amp;S76&amp;T76&amp;U76</f>
         <v>walls.add(v2);</v>
       </c>
     </row>
@@ -7411,7 +7429,7 @@
         <v>7</v>
       </c>
       <c r="J77" s="2">
-        <f t="shared" ref="J77:J97" si="12">F77+5</f>
+        <f t="shared" ref="J77:J97" si="14">F77+5</f>
         <v>2175</v>
       </c>
       <c r="K77" s="2" t="s">
@@ -7425,7 +7443,7 @@
         <v>8</v>
       </c>
       <c r="N77" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v3.setBounds(2170,500,2175,850);</v>
       </c>
       <c r="R77" t="s">
@@ -7435,14 +7453,14 @@
         <v>4</v>
       </c>
       <c r="T77">
-        <f t="shared" ref="T77:T95" si="13">T76+1</f>
+        <f t="shared" ref="T77:T95" si="15">T76+1</f>
         <v>3</v>
       </c>
       <c r="U77" t="s">
         <v>8</v>
       </c>
       <c r="V77" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>walls.add(v3);</v>
       </c>
     </row>
@@ -7471,7 +7489,7 @@
         <v>7</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2175</v>
       </c>
       <c r="K78" s="2" t="s">
@@ -7485,7 +7503,7 @@
         <v>8</v>
       </c>
       <c r="N78" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v4.setBounds(2170,850,2175,1080);</v>
       </c>
       <c r="R78" t="s">
@@ -7495,14 +7513,14 @@
         <v>4</v>
       </c>
       <c r="T78">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="U78" t="s">
+        <v>8</v>
+      </c>
+      <c r="V78" t="str">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="U78" t="s">
-        <v>8</v>
-      </c>
-      <c r="V78" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v4);</v>
       </c>
     </row>
@@ -7531,7 +7549,7 @@
         <v>7</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2175</v>
       </c>
       <c r="K79" s="2" t="s">
@@ -7545,7 +7563,7 @@
         <v>8</v>
       </c>
       <c r="N79" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v5.setBounds(2170,1080,2175,1440);</v>
       </c>
       <c r="R79" t="s">
@@ -7555,14 +7573,14 @@
         <v>4</v>
       </c>
       <c r="T79">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="U79" t="s">
+        <v>8</v>
+      </c>
+      <c r="V79" t="str">
         <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="U79" t="s">
-        <v>8</v>
-      </c>
-      <c r="V79" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v5);</v>
       </c>
     </row>
@@ -7590,7 +7608,7 @@
         <v>7</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1825</v>
       </c>
       <c r="K80" s="2" t="s">
@@ -7603,7 +7621,7 @@
         <v>8</v>
       </c>
       <c r="N80" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v6.setBounds(1820,130,1825,695);</v>
       </c>
       <c r="R80" t="s">
@@ -7613,14 +7631,14 @@
         <v>4</v>
       </c>
       <c r="T80">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="U80" t="s">
+        <v>8</v>
+      </c>
+      <c r="V80" t="str">
         <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="U80" t="s">
-        <v>8</v>
-      </c>
-      <c r="V80" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v6);</v>
       </c>
     </row>
@@ -7649,7 +7667,7 @@
         <v>7</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1835</v>
       </c>
       <c r="K81" s="2" t="s">
@@ -7662,7 +7680,7 @@
         <v>8</v>
       </c>
       <c r="N81" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v7.setBounds(1830,920,1835,1440);</v>
       </c>
       <c r="R81" t="s">
@@ -7672,14 +7690,14 @@
         <v>4</v>
       </c>
       <c r="T81">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="U81" t="s">
+        <v>8</v>
+      </c>
+      <c r="V81" t="str">
         <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="U81" t="s">
-        <v>8</v>
-      </c>
-      <c r="V81" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v7);</v>
       </c>
     </row>
@@ -7703,14 +7721,14 @@
         <v>4</v>
       </c>
       <c r="T82">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="U82" t="s">
+        <v>8</v>
+      </c>
+      <c r="V82" t="str">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="U82" t="s">
-        <v>8</v>
-      </c>
-      <c r="V82" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v8);</v>
       </c>
     </row>
@@ -7734,14 +7752,14 @@
         <v>4</v>
       </c>
       <c r="T83">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="U83" t="s">
+        <v>8</v>
+      </c>
+      <c r="V83" t="str">
         <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="U83" t="s">
-        <v>8</v>
-      </c>
-      <c r="V83" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v9);</v>
       </c>
     </row>
@@ -7765,14 +7783,14 @@
         <v>4</v>
       </c>
       <c r="T84">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="U84" t="s">
+        <v>8</v>
+      </c>
+      <c r="V84" t="str">
         <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="U84" t="s">
-        <v>8</v>
-      </c>
-      <c r="V84" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v10);</v>
       </c>
     </row>
@@ -7799,7 +7817,7 @@
         <v>7</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>445</v>
       </c>
       <c r="K85" s="2" t="s">
@@ -7813,7 +7831,7 @@
         <v>8</v>
       </c>
       <c r="N85" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v11.setBounds(440,0,445,690);</v>
       </c>
       <c r="R85" t="s">
@@ -7823,14 +7841,14 @@
         <v>4</v>
       </c>
       <c r="T85">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="U85" t="s">
+        <v>8</v>
+      </c>
+      <c r="V85" t="str">
         <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="U85" t="s">
-        <v>8</v>
-      </c>
-      <c r="V85" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v11);</v>
       </c>
     </row>
@@ -7857,7 +7875,7 @@
         <v>7</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>585</v>
       </c>
       <c r="K86" s="2" t="s">
@@ -7871,7 +7889,7 @@
         <v>8</v>
       </c>
       <c r="N86" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v12.setBounds(580,270,585,690);</v>
       </c>
       <c r="R86" t="s">
@@ -7881,14 +7899,14 @@
         <v>4</v>
       </c>
       <c r="T86">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="U86" t="s">
+        <v>8</v>
+      </c>
+      <c r="V86" t="str">
         <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="U86" t="s">
-        <v>8</v>
-      </c>
-      <c r="V86" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v12);</v>
       </c>
     </row>
@@ -7916,7 +7934,7 @@
         <v>7</v>
       </c>
       <c r="J87" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1015</v>
       </c>
       <c r="K87" s="2" t="s">
@@ -7930,7 +7948,7 @@
         <v>8</v>
       </c>
       <c r="N87" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v13.setBounds(1010,270,1015,690);</v>
       </c>
       <c r="R87" t="s">
@@ -7940,14 +7958,14 @@
         <v>4</v>
       </c>
       <c r="T87">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="U87" t="s">
+        <v>8</v>
+      </c>
+      <c r="V87" t="str">
         <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="U87" t="s">
-        <v>8</v>
-      </c>
-      <c r="V87" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v13);</v>
       </c>
     </row>
@@ -7976,7 +7994,7 @@
         <v>7</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1245</v>
       </c>
       <c r="K88" s="2" t="s">
@@ -7990,7 +8008,7 @@
         <v>8</v>
       </c>
       <c r="N88" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v14.setBounds(1240,270,1245,690);</v>
       </c>
       <c r="R88" t="s">
@@ -8000,14 +8018,14 @@
         <v>4</v>
       </c>
       <c r="T88">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="U88" t="s">
+        <v>8</v>
+      </c>
+      <c r="V88" t="str">
         <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="U88" t="s">
-        <v>8</v>
-      </c>
-      <c r="V88" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v14);</v>
       </c>
     </row>
@@ -8035,7 +8053,7 @@
         <v>7</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1385</v>
       </c>
       <c r="K89" s="2" t="s">
@@ -8049,7 +8067,7 @@
         <v>8</v>
       </c>
       <c r="N89" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v15.setBounds(1380,130,1385,690);</v>
       </c>
       <c r="R89" t="s">
@@ -8059,14 +8077,14 @@
         <v>4</v>
       </c>
       <c r="T89">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="U89" t="s">
+        <v>8</v>
+      </c>
+      <c r="V89" t="str">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="U89" t="s">
-        <v>8</v>
-      </c>
-      <c r="V89" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v15);</v>
       </c>
     </row>
@@ -8093,7 +8111,7 @@
         <v>7</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1955</v>
       </c>
       <c r="K90" s="2" t="s">
@@ -8106,7 +8124,7 @@
         <v>8</v>
       </c>
       <c r="N90" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v16.setBounds(1950,0,1955,500);</v>
       </c>
       <c r="R90" t="s">
@@ -8116,14 +8134,14 @@
         <v>4</v>
       </c>
       <c r="T90">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="U90" t="s">
+        <v>8</v>
+      </c>
+      <c r="V90" t="str">
         <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="U90" t="s">
-        <v>8</v>
-      </c>
-      <c r="V90" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v16);</v>
       </c>
     </row>
@@ -8150,7 +8168,7 @@
         <v>7</v>
       </c>
       <c r="J91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>445</v>
       </c>
       <c r="K91" t="s">
@@ -8163,7 +8181,7 @@
         <v>8</v>
       </c>
       <c r="N91" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v17.setBounds(440,270,445,275);</v>
       </c>
       <c r="R91" t="s">
@@ -8173,14 +8191,14 @@
         <v>4</v>
       </c>
       <c r="T91">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="U91" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" t="str">
         <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="U91" t="s">
-        <v>8</v>
-      </c>
-      <c r="V91" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v17);</v>
       </c>
     </row>
@@ -8207,7 +8225,7 @@
         <v>7</v>
       </c>
       <c r="J92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1015</v>
       </c>
       <c r="K92" t="s">
@@ -8220,7 +8238,7 @@
         <v>8</v>
       </c>
       <c r="N92" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v18.setBounds(1010,270,1015,275);</v>
       </c>
       <c r="R92" t="s">
@@ -8230,14 +8248,14 @@
         <v>4</v>
       </c>
       <c r="T92">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="U92" t="s">
+        <v>8</v>
+      </c>
+      <c r="V92" t="str">
         <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="U92" t="s">
-        <v>8</v>
-      </c>
-      <c r="V92" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v18);</v>
       </c>
     </row>
@@ -8264,7 +8282,7 @@
         <v>7</v>
       </c>
       <c r="J93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1245</v>
       </c>
       <c r="K93" t="s">
@@ -8277,7 +8295,7 @@
         <v>8</v>
       </c>
       <c r="N93" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v19.setBounds(1240,270,1245,275);</v>
       </c>
       <c r="R93" t="s">
@@ -8287,14 +8305,14 @@
         <v>4</v>
       </c>
       <c r="T93">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="U93" t="s">
+        <v>8</v>
+      </c>
+      <c r="V93" t="str">
         <f t="shared" si="13"/>
-        <v>19</v>
-      </c>
-      <c r="U93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V93" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v19);</v>
       </c>
     </row>
@@ -8321,7 +8339,7 @@
         <v>7</v>
       </c>
       <c r="J94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>445</v>
       </c>
       <c r="K94" t="s">
@@ -8334,7 +8352,7 @@
         <v>8</v>
       </c>
       <c r="N94" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v20.setBounds(440,320,445,325);</v>
       </c>
       <c r="R94" t="s">
@@ -8344,14 +8362,14 @@
         <v>4</v>
       </c>
       <c r="T94">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="U94" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" t="str">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="U94" t="s">
-        <v>8</v>
-      </c>
-      <c r="V94" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v20);</v>
       </c>
     </row>
@@ -8378,7 +8396,7 @@
         <v>7</v>
       </c>
       <c r="J95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="K95" t="s">
@@ -8391,7 +8409,7 @@
         <v>8</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>v21.setBounds(0,520,5,525);</v>
       </c>
       <c r="R95" t="s">
@@ -8401,14 +8419,14 @@
         <v>4</v>
       </c>
       <c r="T95">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="U95" t="s">
+        <v>8</v>
+      </c>
+      <c r="V95" t="str">
         <f t="shared" si="13"/>
-        <v>21</v>
-      </c>
-      <c r="U95" t="s">
-        <v>8</v>
-      </c>
-      <c r="V95" t="str">
-        <f t="shared" si="11"/>
         <v>walls.add(v21);</v>
       </c>
     </row>
@@ -8435,7 +8453,7 @@
         <v>7</v>
       </c>
       <c r="J96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>185</v>
       </c>
       <c r="K96" t="s">
@@ -8449,7 +8467,7 @@
         <v>8</v>
       </c>
       <c r="N96" t="str">
-        <f t="shared" ref="N96" si="14">C96&amp;D96&amp;E96&amp;F96&amp;G96&amp;H96&amp;I96&amp;J96&amp;K96&amp;L96&amp;M96</f>
+        <f t="shared" ref="N96" si="16">C96&amp;D96&amp;E96&amp;F96&amp;G96&amp;H96&amp;I96&amp;J96&amp;K96&amp;L96&amp;M96</f>
         <v>v22.setBounds(180,520,185,850);</v>
       </c>
     </row>
@@ -8476,7 +8494,7 @@
         <v>7</v>
       </c>
       <c r="J97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>585</v>
       </c>
       <c r="K97" t="s">
@@ -8490,7 +8508,7 @@
         <v>8</v>
       </c>
       <c r="N97" t="str">
-        <f t="shared" ref="N97" si="15">C97&amp;D97&amp;E97&amp;F97&amp;G97&amp;H97&amp;I97&amp;J97&amp;K97&amp;L97&amp;M97</f>
+        <f t="shared" ref="N97" si="17">C97&amp;D97&amp;E97&amp;F97&amp;G97&amp;H97&amp;I97&amp;J97&amp;K97&amp;L97&amp;M97</f>
         <v>v23.setBounds(580,270,585,690);</v>
       </c>
     </row>

--- a/Help.xlsx
+++ b/Help.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\Example6-SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D89E3CA-C871-4503-8857-EA157403B974}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0299D86F-DE43-4A51-A30B-2A46A803F2CA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1" xr2:uid="{5740D95F-80E7-44B0-87D4-0F55F160A994}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="36">
   <si>
     <t>ShapeDrawable h1 = new ShapeDrawable(new RectShape());</t>
   </si>
@@ -4591,8 +4591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67521B4C-68BA-41C2-9283-87872E9FDD36}">
   <dimension ref="B2:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
-      <selection activeCell="N66" sqref="N66"/>
+    <sheetView tabSelected="1" topLeftCell="E50" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6624,7 +6624,8 @@
         <v>6</v>
       </c>
       <c r="F52">
-        <v>1950</v>
+        <f>J52-430</f>
+        <v>2170</v>
       </c>
       <c r="G52" t="s">
         <v>7</v>
@@ -6649,7 +6650,7 @@
       </c>
       <c r="N52" t="str">
         <f t="shared" si="10"/>
-        <v>h2.setBounds(1950,500,2600,505);</v>
+        <v>h2.setBounds(2170,500,2600,505);</v>
       </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.25">
@@ -6965,45 +6966,6 @@
         <v>h10.setBounds(440,690,800,695);</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>11</v>
-      </c>
-      <c r="E61" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61">
-        <v>1010</v>
-      </c>
-      <c r="G61" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61">
-        <v>690</v>
-      </c>
-      <c r="I61" t="s">
-        <v>7</v>
-      </c>
-      <c r="J61">
-        <v>1240</v>
-      </c>
-      <c r="K61" t="s">
-        <v>7</v>
-      </c>
-      <c r="L61">
-        <v>695</v>
-      </c>
-      <c r="M61" t="s">
-        <v>8</v>
-      </c>
-      <c r="N61" t="str">
-        <f t="shared" si="10"/>
-        <v>h11.setBounds(1010,690,1240,695);</v>
-      </c>
-    </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
@@ -7178,7 +7140,8 @@
         <v>7</v>
       </c>
       <c r="H69">
-        <v>270</v>
+        <f>H62-140</f>
+        <v>550</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
@@ -7190,14 +7153,14 @@
         <v>7</v>
       </c>
       <c r="L69">
-        <v>275</v>
+        <v>555</v>
       </c>
       <c r="M69" t="s">
         <v>8</v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="11"/>
-        <v>h19.setBounds(1240,270,1380,275);</v>
+        <v>h19.setBounds(1240,550,1380,555);</v>
       </c>
     </row>
     <row r="70" spans="3:22" x14ac:dyDescent="0.25">
@@ -7217,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="H70">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="I70" t="s">
         <v>7</v>
@@ -7236,7 +7199,7 @@
       </c>
       <c r="N70" t="str">
         <f t="shared" si="11"/>
-        <v>h20.setBounds(440,320,580,325);</v>
+        <v>h20.setBounds(440,520,580,325);</v>
       </c>
     </row>
     <row r="71" spans="3:22" x14ac:dyDescent="0.25">
@@ -7250,32 +7213,32 @@
         <v>6</v>
       </c>
       <c r="F71">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
         <v>7</v>
       </c>
       <c r="H71">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="I71" t="s">
         <v>7</v>
       </c>
       <c r="J71">
-        <v>180</v>
+        <v>440</v>
       </c>
       <c r="K71" t="s">
         <v>7</v>
       </c>
       <c r="L71">
-        <v>525</v>
+        <v>365</v>
       </c>
       <c r="M71" t="s">
         <v>8</v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="11"/>
-        <v>h21.setBounds(560,520,180,525);</v>
+        <v>h21.setBounds(0,360,440,365);</v>
       </c>
     </row>
     <row r="74" spans="3:22" x14ac:dyDescent="0.25">
@@ -8447,7 +8410,7 @@
         <v>7</v>
       </c>
       <c r="H96">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="I96" t="s">
         <v>7</v>
@@ -8461,14 +8424,14 @@
       </c>
       <c r="L96">
         <f>H96+330</f>
-        <v>850</v>
+        <v>690</v>
       </c>
       <c r="M96" t="s">
         <v>8</v>
       </c>
       <c r="N96" t="str">
         <f t="shared" ref="N96" si="16">C96&amp;D96&amp;E96&amp;F96&amp;G96&amp;H96&amp;I96&amp;J96&amp;K96&amp;L96&amp;M96</f>
-        <v>v22.setBounds(180,520,185,850);</v>
+        <v>v22.setBounds(180,360,185,690);</v>
       </c>
     </row>
     <row r="97" spans="3:14" x14ac:dyDescent="0.25">
@@ -8482,7 +8445,7 @@
         <v>6</v>
       </c>
       <c r="F97">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="G97" t="s">
         <v>7</v>
@@ -8495,7 +8458,7 @@
       </c>
       <c r="J97">
         <f t="shared" si="14"/>
-        <v>585</v>
+        <v>805</v>
       </c>
       <c r="K97" t="s">
         <v>7</v>
@@ -8509,7 +8472,7 @@
       </c>
       <c r="N97" t="str">
         <f t="shared" ref="N97" si="17">C97&amp;D97&amp;E97&amp;F97&amp;G97&amp;H97&amp;I97&amp;J97&amp;K97&amp;L97&amp;M97</f>
-        <v>v23.setBounds(580,270,585,690);</v>
+        <v>v23.setBounds(800,270,805,690);</v>
       </c>
     </row>
   </sheetData>

--- a/Help.xlsx
+++ b/Help.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\Example6-SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0299D86F-DE43-4A51-A30B-2A46A803F2CA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB1B53C-0F27-4156-8C82-4B96F74B8A60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1" xr2:uid="{5740D95F-80E7-44B0-87D4-0F55F160A994}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="4" sheetId="1" r:id="rId1"/>
     <sheet name="3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,9 +100,6 @@
     <t>h9.setBounds(0,690,440,695);</t>
   </si>
   <si>
-    <t>h10.setBounds(440,690,1010,695);</t>
-  </si>
-  <si>
     <t>h11.setBounds(1010,690,1240,695);</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>h12.setBounds(1240,690,1820,695);</t>
+  </si>
+  <si>
+    <t>h10.setBounds(440,690,1015,695);</t>
   </si>
 </sst>
 </file>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ECF691-0774-4488-9B2F-C1C7BE848477}">
   <dimension ref="B2:V95"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="F52" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2909,7 +2909,7 @@
         <v>7</v>
       </c>
       <c r="J60">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="K60" t="s">
         <v>7</v>
@@ -2921,7 +2921,7 @@
         <v>8</v>
       </c>
       <c r="N60" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.25">
@@ -2959,7 +2959,7 @@
         <v>8</v>
       </c>
       <c r="N61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
         <v>8</v>
       </c>
       <c r="N62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.25">
@@ -3035,7 +3035,7 @@
         <v>8</v>
       </c>
       <c r="N63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.25">
@@ -3073,7 +3073,7 @@
         <v>8</v>
       </c>
       <c r="N64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="3:22" x14ac:dyDescent="0.25">
@@ -3111,7 +3111,7 @@
         <v>8</v>
       </c>
       <c r="N65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="3:22" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>8</v>
       </c>
       <c r="N66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="3:22" x14ac:dyDescent="0.25">
@@ -3187,7 +3187,7 @@
         <v>8</v>
       </c>
       <c r="N67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="3:22" x14ac:dyDescent="0.25">
@@ -3225,7 +3225,7 @@
         <v>8</v>
       </c>
       <c r="N68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="3:22" x14ac:dyDescent="0.25">
@@ -3263,7 +3263,7 @@
         <v>8</v>
       </c>
       <c r="N69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="3:22" x14ac:dyDescent="0.25">
@@ -3301,7 +3301,7 @@
         <v>8</v>
       </c>
       <c r="N70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="3:22" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <v>8</v>
       </c>
       <c r="N71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="3:22" x14ac:dyDescent="0.25">
@@ -4591,8 +4591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67521B4C-68BA-41C2-9283-87872E9FDD36}">
   <dimension ref="B2:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E50" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView tabSelected="1" topLeftCell="F56" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6949,8 +6949,7 @@
         <v>7</v>
       </c>
       <c r="J60">
-        <f>J67</f>
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="K60" t="s">
         <v>7</v>
@@ -6963,7 +6962,7 @@
       </c>
       <c r="N60" t="str">
         <f t="shared" si="10"/>
-        <v>h10.setBounds(440,690,800,695);</v>
+        <v>h10.setBounds(440,690,805,695);</v>
       </c>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.25">
